--- a/KBS/report/AddClubLinkUsersCheck-RunAuthorization.xlsx
+++ b/KBS/report/AddClubLinkUsersCheck-RunAuthorization.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="12">
   <si>
     <t xml:space="preserve">Step No</t>
   </si>
@@ -27,6 +27,9 @@
   </si>
   <si>
     <t xml:space="preserve">Pass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add Club Link exists</t>
   </si>
   <si>
     <t xml:space="preserve">User is Authorized User</t>
@@ -124,7 +127,7 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -132,10 +135,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -146,7 +149,7 @@
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -157,7 +160,7 @@
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -165,10 +168,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -176,10 +179,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9">
@@ -187,10 +190,21 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>6</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
